--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>coque</t>
   </si>
@@ -42,7 +42,13 @@
     <t>P2</t>
   </si>
   <si>
-    <t>intermediario</t>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Intermediário</t>
+  </si>
+  <si>
+    <t>Fluxo de referência</t>
   </si>
 </sst>
 </file>
@@ -78,10 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,109 +393,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="2">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
+        <v>1610</v>
+      </c>
+      <c r="D3" s="2">
         <v>-0.04</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
         <v>-1</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
         <v>0.5</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>2E-3</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <v>1</v>
       </c>
     </row>

--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -55,9 +55,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -84,12 +91,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -396,130 +400,131 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1610</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>-0.04</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
         <v>-1</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
         <v>0.5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
         <v>2E-3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="0" yWindow="72" windowWidth="28740" windowHeight="12720"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="processos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>coque</t>
   </si>
@@ -36,12 +34,6 @@
     <t>fofo</t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
     <t>Produto</t>
   </si>
   <si>
@@ -49,13 +41,52 @@
   </si>
   <si>
     <t>Fluxo de referência</t>
+  </si>
+  <si>
+    <t>Q1-Mudanças Climáticas</t>
+  </si>
+  <si>
+    <t>Q2-Acidificação</t>
+  </si>
+  <si>
+    <t>lognormal</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>stdQ1-Tipo</t>
+  </si>
+  <si>
+    <t>stdQ2-Tipo</t>
+  </si>
+  <si>
+    <t>Processo 1</t>
+  </si>
+  <si>
+    <t>Processo 2</t>
+  </si>
+  <si>
+    <t>std P1</t>
+  </si>
+  <si>
+    <t>std P2</t>
+  </si>
+  <si>
+    <t>stdP</t>
+  </si>
+  <si>
+    <t>std Q1</t>
+  </si>
+  <si>
+    <t>std Q2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,11 +95,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibria"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,11 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,157 +434,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="40.799999999999997" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.6">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="F2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.6">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>1610</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>-0.04</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.6">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
         <v>-1</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.6">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
         <v>0.5</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="F5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.6">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>2E-3</v>
       </c>
-      <c r="E6" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="E6" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.6">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <v>1</v>
       </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.6">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.6">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.6">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.6">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.6">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.6">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.6">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.6">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7 M2:N2">
+      <formula1>"normal,lognormal"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>